--- a/Database/Openings/File-Status.xlsx
+++ b/Database/Openings/File-Status.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chess\Database\Openings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
   <si>
     <t>Player</t>
   </si>
@@ -98,27 +93,9 @@
     <t>French</t>
   </si>
   <si>
-    <t>Chapter 15:</t>
-  </si>
-  <si>
-    <t>Chapter 16:</t>
-  </si>
-  <si>
-    <t>Chapter 17:</t>
-  </si>
-  <si>
-    <t>Chapter 18:</t>
-  </si>
-  <si>
-    <t>Chapter 19:</t>
-  </si>
-  <si>
     <t>Caro Kann / Center Counter</t>
   </si>
   <si>
-    <t>Chapter 20:</t>
-  </si>
-  <si>
     <t>Chapter 21: Scandinavian Defense</t>
   </si>
   <si>
@@ -315,6 +292,51 @@
   </si>
   <si>
     <t>E:\Chess\Database\Openings\Open-Games-e4-e5\Petroff-Defense.pgn</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\French-Defense\French-Rubinstein.pgn</t>
+  </si>
+  <si>
+    <t>Status Note</t>
+  </si>
+  <si>
+    <t>All lines followed at least to move 8</t>
+  </si>
+  <si>
+    <t>Chapter 15: Rubinstein</t>
+  </si>
+  <si>
+    <t>Chapter 16: Burn</t>
+  </si>
+  <si>
+    <t>Chapter 17: MacCutcheon</t>
+  </si>
+  <si>
+    <t>Chapter 18: Classical</t>
+  </si>
+  <si>
+    <t>Chapter 19: Winawer</t>
+  </si>
+  <si>
+    <t>Chapter 20: Caro-Kann Exchange Variation</t>
+  </si>
+  <si>
+    <t>Chapter 22: Pirc Defense</t>
+  </si>
+  <si>
+    <t>Chapter 23: Modern / Gurgendize</t>
+  </si>
+  <si>
+    <t>Chapter 24: Alekine's Defense with 5…cxd6</t>
+  </si>
+  <si>
+    <t>Chapter 25: Alekine's Defense with 5…exd6</t>
+  </si>
+  <si>
+    <t>Chapter 26: Nimzo and the rest</t>
+  </si>
+  <si>
+    <t>Done*</t>
   </si>
 </sst>
 </file>
@@ -642,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,22 +672,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.625" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +704,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -699,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -716,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -733,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -747,10 +773,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -761,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -772,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -789,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -800,7 +826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -817,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -825,10 +851,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -836,10 +871,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -847,10 +882,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -858,10 +893,10 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -869,18 +904,18 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -905,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,24 +984,24 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -974,50 +1009,50 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -1025,140 +1060,140 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -1166,313 +1201,313 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Openings/File-Status.xlsx
+++ b/Database/Openings/File-Status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="107">
   <si>
     <t>Player</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Done*</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\French-Defense\French-Burn.pgn</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,7 +679,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +876,15 @@
       <c r="C12" t="s">
         <v>95</v>
       </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">

--- a/Database/Openings/File-Status.xlsx
+++ b/Database/Openings/File-Status.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
   <si>
     <t>Player</t>
   </si>
@@ -340,6 +341,15 @@
   </si>
   <si>
     <t>E:\Chess\Database\Openings\French-Defense\French-Burn.pgn</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\French-Defense\French-MacCutcheon.pgn</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\French-Defense\French-Classical.pgn</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\French-Defense\French-Winawer.pgn</t>
   </si>
 </sst>
 </file>
@@ -667,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +906,15 @@
       <c r="C13" t="s">
         <v>96</v>
       </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -907,6 +926,15 @@
       <c r="C14" t="s">
         <v>97</v>
       </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -917,6 +945,15 @@
       </c>
       <c r="C15" t="s">
         <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,4 +1563,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Openings/File-Status.xlsx
+++ b/Database/Openings/File-Status.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chess\Database\Openings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
   <si>
     <t>Player</t>
   </si>
@@ -350,6 +355,9 @@
   </si>
   <si>
     <t>E:\Chess\Database\Openings\French-Defense\French-Winawer.pgn</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\Caro-Kann-Exchange-Variation.pgn</t>
   </si>
 </sst>
 </file>
@@ -677,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,16 +697,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -965,6 +973,15 @@
       </c>
       <c r="C16" t="s">
         <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">

--- a/Database/Openings/File-Status.xlsx
+++ b/Database/Openings/File-Status.xlsx
@@ -697,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database/Openings/File-Status.xlsx
+++ b/Database/Openings/File-Status.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chess\Database\Openings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
   <si>
     <t>Player</t>
   </si>
@@ -358,6 +353,9 @@
   </si>
   <si>
     <t>E:\Chess\Database\Openings\Caro-Kann-Exchange-Variation.pgn</t>
+  </si>
+  <si>
+    <t>E:\Chess\Database\Openings\Open-Games-e4-e5\Two-Knights-Main-Line-7...Bc5.pgn</t>
   </si>
 </sst>
 </file>
@@ -685,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,16 +695,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -793,8 +791,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
+      <c r="E5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,6 +807,15 @@
       </c>
       <c r="C6" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
